--- a/pandas_datareaderagregates.xlsx
+++ b/pandas_datareaderagregates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanme\OneDrive\Área de Trabalho\Portifólio\yfanalise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F3589E-2E64-4B84-80C5-3B593A0A6D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77154432-9DA1-4881-8C31-CD8A10EF6174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -111,15 +111,9 @@
     <t>IDH</t>
   </si>
   <si>
-    <t>TXINF</t>
-  </si>
-  <si>
     <t>DESEM</t>
   </si>
   <si>
-    <t>DIV</t>
-  </si>
-  <si>
     <t>TXJUR</t>
   </si>
   <si>
@@ -129,7 +123,13 @@
     <t>IMP</t>
   </si>
   <si>
-    <t>PIBPOP</t>
+    <t>DIVPUB</t>
+  </si>
+  <si>
+    <t>TXINFLA</t>
+  </si>
+  <si>
+    <t>PIBPCAPTA</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_datareaderagregates.xlsx
+++ b/pandas_datareaderagregates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanme\OneDrive\Área de Trabalho\Portifólio\yfanalise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77154432-9DA1-4881-8C31-CD8A10EF6174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A553D-5F67-44D9-B687-9C31346A8AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>agrname</t>
   </si>
@@ -39,9 +39,6 @@
     <t>NY.GDP.PCAP.CD</t>
   </si>
   <si>
-    <t>PIB nominal (USD)</t>
-  </si>
-  <si>
     <t>PIB per Capta (USD)</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Taxa de Crescimento</t>
   </si>
   <si>
-    <t>Índice de Desenvolvimento Humano (IDH)</t>
-  </si>
-  <si>
     <t>FP.CPI.TOTL.ZG</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>NE.EXP.GNFS.CD</t>
   </si>
   <si>
-    <t>Exportações</t>
-  </si>
-  <si>
     <t>NE.IMP.GNFS.CD</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>POPCRESC</t>
   </si>
   <si>
-    <t>IDH</t>
-  </si>
-  <si>
     <t>DESEM</t>
   </si>
   <si>
@@ -130,6 +118,12 @@
   </si>
   <si>
     <t>PIBPCAPTA</t>
+  </si>
+  <si>
+    <t>Exportações (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIB nominal (USD, não corrigido pela infla) </t>
   </si>
 </sst>
 </file>
@@ -447,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -465,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -473,46 +467,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,40 +550,29 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
